--- a/Exersizes/003 salary from experience/SalariesVsExperience.xlsx
+++ b/Exersizes/003 salary from experience/SalariesVsExperience.xlsx
@@ -1,19 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://belgiumcampusacza-my.sharepoint.com/personal/578081_student_belgiumcampus_ac_za/Documents/Class work/MLG 382/MLG382/Exersizes/003 salary from experience/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_8CA5A9B284702EAE463A77E89383D06E1CFDE9E2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBDB33BF-3817-4526-BC17-51D051FCB007}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">data!$A$1:$B$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$B$102</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -25,22 +30,21 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t xml:space="preserve">Years Experience</t>
+    <t>Years Experience</t>
   </si>
   <si>
-    <t xml:space="preserve">Salary</t>
+    <t>Salary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="[$R-436]\ #,##0;[$R-436]\-#,##0"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$R-436]\ #,##0;[$R-436]\-#,##0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -48,22 +52,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -85,101 +74,60 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -238,33 +186,357 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B102"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B103" activeCellId="0" sqref="B103"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="16.53"/>
+    <col min="1" max="1" width="14.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2" s="5" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -272,823 +544,819 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="B2" s="7" t="n">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7">
         <v>25805</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="n">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
         <v>1.3</v>
       </c>
-      <c r="B3" s="7" t="n">
+      <c r="B3" s="7">
         <v>21393</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="n">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
         <v>1.5</v>
       </c>
-      <c r="B4" s="7" t="n">
+      <c r="B4" s="7">
         <v>23266</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="n">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="n">
+      <c r="B5" s="7">
         <v>28108</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="B6" s="7" t="n">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B6" s="7">
         <v>31532</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="n">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
         <v>2.9</v>
       </c>
-      <c r="B7" s="7" t="n">
+      <c r="B7" s="7">
         <v>38262</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="n">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
         <v>3</v>
       </c>
-      <c r="B8" s="7" t="n">
+      <c r="B8" s="7">
         <v>34826</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="n">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
         <v>3.2</v>
       </c>
-      <c r="B9" s="7" t="n">
+      <c r="B9" s="7">
         <v>32909</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="n">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
         <v>3.9</v>
       </c>
-      <c r="B10" s="7" t="n">
+      <c r="B10" s="7">
         <v>32737</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="n">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
         <v>4.2</v>
       </c>
-      <c r="B11" s="7" t="n">
+      <c r="B11" s="7">
         <v>36754</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="B12" s="7" t="n">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B12" s="7">
         <v>43495</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="n">
-        <v>9.3</v>
-      </c>
-      <c r="B13" s="7" t="n">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="8">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="B13" s="7">
         <v>62146</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="n">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
         <v>9.5</v>
       </c>
-      <c r="B14" s="7" t="n">
+      <c r="B14" s="7">
         <v>60098</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="n">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="8">
         <v>5.2</v>
       </c>
-      <c r="B15" s="7" t="n">
+      <c r="B15" s="7">
         <v>47224</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="n">
-        <v>8.3</v>
-      </c>
-      <c r="B16" s="7" t="n">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="8">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="B16" s="7">
         <v>53658</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="n">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="8">
         <v>4.7</v>
       </c>
-      <c r="B17" s="7" t="n">
+      <c r="B17" s="7">
         <v>40700</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="n">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="8">
         <v>8.4</v>
       </c>
-      <c r="B18" s="7" t="n">
+      <c r="B18" s="7">
         <v>54765</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="B19" s="7" t="n">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="8">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B19" s="7">
         <v>45064</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="n">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
         <v>6.3</v>
       </c>
-      <c r="B20" s="7" t="n">
+      <c r="B20" s="7">
         <v>46633</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="n">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="8">
         <v>6.4</v>
       </c>
-      <c r="B21" s="7" t="n">
+      <c r="B21" s="7">
         <v>47791</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="n">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="8">
         <v>8</v>
       </c>
-      <c r="B22" s="7" t="n">
+      <c r="B22" s="7">
         <v>55402</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="n">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="8">
         <v>0.3</v>
       </c>
-      <c r="B23" s="7" t="n">
+      <c r="B23" s="7">
         <v>21962</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="n">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="8">
         <v>6.8</v>
       </c>
-      <c r="B24" s="7" t="n">
+      <c r="B24" s="7">
         <v>57941</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="n">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="8">
         <v>5.8</v>
       </c>
-      <c r="B25" s="7" t="n">
+      <c r="B25" s="7">
         <v>44710</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="n">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="8">
         <v>1.6</v>
       </c>
-      <c r="B26" s="7" t="n">
+      <c r="B26" s="7">
         <v>28183</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="n">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="8">
         <v>1.4</v>
       </c>
-      <c r="B27" s="7" t="n">
+      <c r="B27" s="7">
         <v>28660</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="n">
-        <v>8.2</v>
-      </c>
-      <c r="B28" s="7" t="n">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="8">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B28" s="7">
         <v>63654</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8" t="n">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="8">
         <v>1.9</v>
       </c>
-      <c r="B29" s="7" t="n">
+      <c r="B29" s="7">
         <v>24601</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8" t="n">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="8">
         <v>7.5</v>
       </c>
-      <c r="B30" s="7" t="n">
+      <c r="B30" s="7">
         <v>56521</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8" t="n">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="8">
         <v>6.1</v>
       </c>
-      <c r="B31" s="7" t="n">
+      <c r="B31" s="7">
         <v>42972</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8" t="n">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="8">
         <v>8.1</v>
       </c>
-      <c r="B32" s="7" t="n">
+      <c r="B32" s="7">
         <v>63254</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8" t="n">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="8">
         <v>9.5</v>
       </c>
-      <c r="B33" s="7" t="n">
+      <c r="B33" s="7">
         <v>69765</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8" t="n">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="8">
         <v>2.7</v>
       </c>
-      <c r="B34" s="7" t="n">
+      <c r="B34" s="7">
         <v>29976</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="8" t="n">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="8">
         <v>0.2</v>
       </c>
-      <c r="B35" s="7" t="n">
+      <c r="B35" s="7">
         <v>19766</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="8" t="n">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="8">
         <v>5.2</v>
       </c>
-      <c r="B36" s="7" t="n">
+      <c r="B36" s="7">
         <v>38467</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="8" t="n">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="8">
         <v>1.9</v>
       </c>
-      <c r="B37" s="7" t="n">
+      <c r="B37" s="7">
         <v>31522</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="8" t="n">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="8">
         <v>3.7</v>
       </c>
-      <c r="B38" s="7" t="n">
+      <c r="B38" s="7">
         <v>40009</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="8" t="n">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="8">
         <v>3.6</v>
       </c>
-      <c r="B39" s="7" t="n">
+      <c r="B39" s="7">
         <v>42887</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="8" t="n">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="8">
         <v>3.6</v>
       </c>
-      <c r="B40" s="7" t="n">
+      <c r="B40" s="7">
         <v>37052</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="8" t="n">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="8">
         <v>4.7</v>
       </c>
-      <c r="B41" s="7" t="n">
+      <c r="B41" s="7">
         <v>46697</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="8" t="n">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="8">
         <v>6</v>
       </c>
-      <c r="B42" s="7" t="n">
+      <c r="B42" s="7">
         <v>48144</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="8" t="n">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="8">
         <v>2.1</v>
       </c>
-      <c r="B43" s="7" t="n">
+      <c r="B43" s="7">
         <v>24471</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="8" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="B44" s="7" t="n">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B44" s="7">
         <v>36755</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="8" t="n">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="8">
         <v>3.5</v>
       </c>
-      <c r="B45" s="7" t="n">
+      <c r="B45" s="7">
         <v>36833</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="8" t="n">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="8">
         <v>6.5</v>
       </c>
-      <c r="B46" s="7" t="n">
+      <c r="B46" s="7">
         <v>46571</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="8" t="n">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="8">
         <v>4.5</v>
       </c>
-      <c r="B47" s="7" t="n">
+      <c r="B47" s="7">
         <v>43481</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="8" t="n">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="8">
         <v>3.5</v>
       </c>
-      <c r="B48" s="7" t="n">
+      <c r="B48" s="7">
         <v>35331</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="8" t="n">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="8">
         <v>7.6</v>
       </c>
-      <c r="B49" s="7" t="n">
+      <c r="B49" s="7">
         <v>56203</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="8" t="n">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="8">
         <v>3.6</v>
       </c>
-      <c r="B50" s="7" t="n">
+      <c r="B50" s="7">
         <v>34297</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="8" t="n">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="8">
         <v>7.1</v>
       </c>
-      <c r="B51" s="7" t="n">
+      <c r="B51" s="7">
         <v>53874</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="8" t="n">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="8">
         <v>0.3</v>
       </c>
-      <c r="B52" s="7" t="n">
+      <c r="B52" s="7">
         <v>22310</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="8" t="n">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="8">
         <v>1</v>
       </c>
-      <c r="B53" s="7" t="n">
+      <c r="B53" s="7">
         <v>19097</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="8" t="n">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="8">
         <v>7.7</v>
       </c>
-      <c r="B54" s="7" t="n">
+      <c r="B54" s="7">
         <v>61252</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="8" t="n">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="8">
         <v>6.4</v>
       </c>
-      <c r="B55" s="7" t="n">
+      <c r="B55" s="7">
         <v>50909</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="8" t="n">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="8">
         <v>3.9</v>
       </c>
-      <c r="B56" s="7" t="n">
+      <c r="B56" s="7">
         <v>42260</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="8" t="n">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="8">
         <v>0.8</v>
       </c>
-      <c r="B57" s="7" t="n">
+      <c r="B57" s="7">
         <v>25627</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="8" t="n">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="8">
         <v>2.9</v>
       </c>
-      <c r="B58" s="7" t="n">
+      <c r="B58" s="7">
         <v>32076</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="8" t="n">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="8">
         <v>2.8</v>
       </c>
-      <c r="B59" s="7" t="n">
+      <c r="B59" s="7">
         <v>37511</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="8" t="n">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="8">
         <v>0.9</v>
       </c>
-      <c r="B60" s="7" t="n">
+      <c r="B60" s="7">
         <v>22172</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="8" t="n">
-        <v>9.2</v>
-      </c>
-      <c r="B61" s="7" t="n">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="8">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="B61" s="7">
         <v>60568</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="8" t="n">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="8">
         <v>5.6</v>
       </c>
-      <c r="B62" s="7" t="n">
+      <c r="B62" s="7">
         <v>46073</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="8" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="B63" s="7" t="n">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B63" s="7">
         <v>34455</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="8" t="n">
-        <v>9.7</v>
-      </c>
-      <c r="B64" s="7" t="n">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="8">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="B64" s="7">
         <v>65259</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="8" t="n">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="8">
         <v>1.2</v>
       </c>
-      <c r="B65" s="7" t="n">
+      <c r="B65" s="7">
         <v>27552</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="8" t="n">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="8">
         <v>0.7</v>
       </c>
-      <c r="B66" s="7" t="n">
+      <c r="B66" s="7">
         <v>24250</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="8" t="n">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="8">
         <v>4</v>
       </c>
-      <c r="B67" s="7" t="n">
+      <c r="B67" s="7">
         <v>32747</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="8" t="n">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="8">
         <v>4.8</v>
       </c>
-      <c r="B68" s="7" t="n">
+      <c r="B68" s="7">
         <v>38281</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="8" t="n">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="8">
         <v>7.5</v>
       </c>
-      <c r="B69" s="7" t="n">
+      <c r="B69" s="7">
         <v>63367</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="8" t="n">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="8">
         <v>9.1</v>
       </c>
-      <c r="B70" s="7" t="n">
+      <c r="B70" s="7">
         <v>68256</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="8" t="n">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="8">
         <v>9</v>
       </c>
-      <c r="B71" s="7" t="n">
+      <c r="B71" s="7">
         <v>62185</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="8" t="n">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="8">
         <v>9.9</v>
       </c>
-      <c r="B72" s="7" t="n">
+      <c r="B72" s="7">
         <v>64831</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="8" t="n">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="8">
         <v>0.3</v>
       </c>
-      <c r="B73" s="7" t="n">
+      <c r="B73" s="7">
         <v>21857</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="8" t="n">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="8">
         <v>7.7</v>
       </c>
-      <c r="B74" s="7" t="n">
+      <c r="B74" s="7">
         <v>47048</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="8" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="B75" s="7" t="n">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B75" s="7">
         <v>24528</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="8" t="n">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="8">
         <v>3.6</v>
       </c>
-      <c r="B76" s="7" t="n">
+      <c r="B76" s="7">
         <v>40782</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="8" t="n">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="8">
         <v>2.7</v>
       </c>
-      <c r="B77" s="7" t="n">
+      <c r="B77" s="7">
         <v>30466</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="8" t="n">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="8">
         <v>2.7</v>
       </c>
-      <c r="B78" s="7" t="n">
+      <c r="B78" s="7">
         <v>37254</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="8" t="n">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="8">
         <v>1.7</v>
       </c>
-      <c r="B79" s="7" t="n">
+      <c r="B79" s="7">
         <v>30198</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="8" t="n">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="8">
         <v>2.5</v>
       </c>
-      <c r="B80" s="7" t="n">
+      <c r="B80" s="7">
         <v>33497</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="8" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="B81" s="7" t="n">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B81" s="7">
         <v>27010</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="8" t="n">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="8">
         <v>2.7</v>
       </c>
-      <c r="B82" s="7" t="n">
+      <c r="B82" s="7">
         <v>37744</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="8" t="n">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="8">
         <v>1.2</v>
       </c>
-      <c r="B83" s="7" t="n">
+      <c r="B83" s="7">
         <v>24645</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="8" t="n">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="8">
         <v>5.9</v>
       </c>
-      <c r="B84" s="7" t="n">
+      <c r="B84" s="7">
         <v>49155</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="8" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="B85" s="7" t="n">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B85" s="7">
         <v>34497</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="8" t="n">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="8">
         <v>6.9</v>
       </c>
-      <c r="B86" s="7" t="n">
+      <c r="B86" s="7">
         <v>44134</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="8" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="B87" s="7" t="n">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="8">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B87" s="7">
         <v>49896</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="8" t="n">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="8">
         <v>7.2</v>
       </c>
-      <c r="B88" s="7" t="n">
+      <c r="B88" s="7">
         <v>51272</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="8" t="n">
-        <v>8.7</v>
-      </c>
-      <c r="B89" s="7" t="n">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="8">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="B89" s="7">
         <v>55662</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="8" t="n">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="8">
         <v>10</v>
       </c>
-      <c r="B90" s="7" t="n">
+      <c r="B90" s="7">
         <v>62074</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="8" t="n">
-        <v>9.2</v>
-      </c>
-      <c r="B91" s="7" t="n">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="8">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="B91" s="7">
         <v>54722</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="8" t="n">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="8">
         <v>3.5</v>
       </c>
-      <c r="B92" s="7" t="n">
+      <c r="B92" s="7">
         <v>39817</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="8" t="n">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="8">
         <v>2.6</v>
       </c>
-      <c r="B93" s="7" t="n">
+      <c r="B93" s="7">
         <v>33829</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="8" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="B94" s="7" t="n">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B94" s="7">
         <v>32134</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="8" t="n">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="8">
         <v>2</v>
       </c>
-      <c r="B95" s="7" t="n">
+      <c r="B95" s="7">
         <v>31121</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="8" t="n">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="8">
         <v>4.8</v>
       </c>
-      <c r="B96" s="7" t="n">
+      <c r="B96" s="7">
         <v>42194</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="8" t="n">
-        <v>8.3</v>
-      </c>
-      <c r="B97" s="7" t="n">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="8">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="B97" s="7">
         <v>63448</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="8" t="n">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="8">
         <v>3.4</v>
       </c>
-      <c r="B98" s="7" t="n">
+      <c r="B98" s="7">
         <v>34465</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="8" t="n">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="8">
         <v>8.1</v>
       </c>
-      <c r="B99" s="7" t="n">
+      <c r="B99" s="7">
         <v>60683</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="8" t="n">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="8">
         <v>3.9</v>
       </c>
-      <c r="B100" s="7" t="n">
+      <c r="B100" s="7">
         <v>34343</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="8" t="n">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="8">
         <v>1.6</v>
       </c>
-      <c r="B101" s="7" t="n">
+      <c r="B101" s="7">
         <v>32291</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="6" t="n">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="6">
         <v>1.3</v>
       </c>
-      <c r="B102" s="7" t="n">
+      <c r="B102" s="7">
         <v>19950</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B102"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <autoFilter ref="A1:B102" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>